--- a/Resources/SeriesReport-20210905185739_0d8371.xlsx
+++ b/Resources/SeriesReport-20210905185739_0d8371.xlsx
@@ -5,17 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data Analysis Git Repo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data Analysis Git Repo\Final-Project\finalProject\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486DD974-F4B7-4831-A229-DCB6F120A2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124BD3CB-B70D-401C-9E15-8DA7E9E6EC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BLS Data Series" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name=" wages largest 25 counties" sheetId="3" r:id="rId3"/>
+    <sheet name="wage all counties" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="QCEWTable1FL.xlsx.f.1" localSheetId="2">' wages largest 25 counties'!$A$33</definedName>
+    <definedName name="QCEWTable1FL.xlsx.f.2" localSheetId="2">' wages largest 25 counties'!$A$34</definedName>
+    <definedName name="QCEWTable1FL.xlsx.f.3" localSheetId="2">' wages largest 25 counties'!$A$35</definedName>
+    <definedName name="QCEWTable1FL.xlsx.f.4" localSheetId="2">' wages largest 25 counties'!$A$36</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -46,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="133">
   <si>
     <t>Local Area Unemployment Statistics</t>
   </si>
@@ -163,16 +171,299 @@
   </si>
   <si>
     <t>P : Preliminary.</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Establishments,</t>
+  </si>
+  <si>
+    <t>third quarter 2020</t>
+  </si>
+  <si>
+    <t>(thousands)</t>
+  </si>
+  <si>
+    <t>Employment</t>
+  </si>
+  <si>
+    <t>Average weekly wage (1)</t>
+  </si>
+  <si>
+    <t>Percent change,</t>
+  </si>
+  <si>
+    <t>September 2019–20 (2)</t>
+  </si>
+  <si>
+    <t>National ranking</t>
+  </si>
+  <si>
+    <t>by percent change (3)</t>
+  </si>
+  <si>
+    <t>Third quarter</t>
+  </si>
+  <si>
+    <t>by level (3)</t>
+  </si>
+  <si>
+    <t>third quarter 2019–20 (2)</t>
+  </si>
+  <si>
+    <t>United States (4)</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>Alachua</t>
+  </si>
+  <si>
+    <t>Brevard</t>
+  </si>
+  <si>
+    <t>Broward</t>
+  </si>
+  <si>
+    <t>Collier</t>
+  </si>
+  <si>
+    <t>Duval</t>
+  </si>
+  <si>
+    <t>Escambia</t>
+  </si>
+  <si>
+    <t>Hillsborough</t>
+  </si>
+  <si>
+    <t>Lake</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>Leon</t>
+  </si>
+  <si>
+    <t>Manatee</t>
+  </si>
+  <si>
+    <t>Marion</t>
+  </si>
+  <si>
+    <t>Miami-Dade</t>
+  </si>
+  <si>
+    <t>Okaloosa</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Osceola</t>
+  </si>
+  <si>
+    <t>Palm Beach</t>
+  </si>
+  <si>
+    <t>Pasco</t>
+  </si>
+  <si>
+    <t>Pinellas</t>
+  </si>
+  <si>
+    <t>Polk</t>
+  </si>
+  <si>
+    <t>Sarasota</t>
+  </si>
+  <si>
+    <t>Seminole</t>
+  </si>
+  <si>
+    <t>St. Johns</t>
+  </si>
+  <si>
+    <t>St. Lucie</t>
+  </si>
+  <si>
+    <t>Volusia</t>
+  </si>
+  <si>
+    <t>Footnotes:</t>
+  </si>
+  <si>
+    <t>(1) Average weekly wages were calculated using unrounded data.</t>
+  </si>
+  <si>
+    <t>(2) Percent changes were computed from quarterly employment and pay data adjusted for noneconomic county reclassifications.</t>
+  </si>
+  <si>
+    <t>(3) Ranking does not include data for Puerto Rico or the Virgin Islands.</t>
+  </si>
+  <si>
+    <t>(4) Totals for the United States do not include data for Puerto Rico or the Virgin Islands.</t>
+  </si>
+  <si>
+    <t>Note: Data are preliminary. Covered employment and wages includes workers covered by Unemployment Insurance (UI) and Unemployment Compensation for Federal Employees (UCFE) programs.</t>
+  </si>
+  <si>
+    <t>Employment September 2020</t>
+  </si>
+  <si>
+    <t>Average weekly wage(1)</t>
+  </si>
+  <si>
+    <t>United States(2)</t>
+  </si>
+  <si>
+    <t>Baker</t>
+  </si>
+  <si>
+    <t>Bay</t>
+  </si>
+  <si>
+    <t>Bradford</t>
+  </si>
+  <si>
+    <t>Calhoun</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>Citrus</t>
+  </si>
+  <si>
+    <t>Clay</t>
+  </si>
+  <si>
+    <t>Columbia</t>
+  </si>
+  <si>
+    <t>De Soto</t>
+  </si>
+  <si>
+    <t>Dixie</t>
+  </si>
+  <si>
+    <t>Flagler</t>
+  </si>
+  <si>
+    <t>Franklin</t>
+  </si>
+  <si>
+    <t>Gadsden</t>
+  </si>
+  <si>
+    <t>Gilchrist</t>
+  </si>
+  <si>
+    <t>Glades</t>
+  </si>
+  <si>
+    <t>Gulf</t>
+  </si>
+  <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
+    <t>Hardee</t>
+  </si>
+  <si>
+    <t>Hendry</t>
+  </si>
+  <si>
+    <t>Hernando</t>
+  </si>
+  <si>
+    <t>Highlands</t>
+  </si>
+  <si>
+    <t>Holmes</t>
+  </si>
+  <si>
+    <t>Indian River</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>Jefferson</t>
+  </si>
+  <si>
+    <t>Lafayette</t>
+  </si>
+  <si>
+    <t>Levy</t>
+  </si>
+  <si>
+    <t>Liberty</t>
+  </si>
+  <si>
+    <t>Madison</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Monroe</t>
+  </si>
+  <si>
+    <t>Nassau</t>
+  </si>
+  <si>
+    <t>Okeechobee</t>
+  </si>
+  <si>
+    <t>Putnam</t>
+  </si>
+  <si>
+    <t>Santa Rosa</t>
+  </si>
+  <si>
+    <t>Sumter</t>
+  </si>
+  <si>
+    <t>Suwannee</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>Union</t>
+  </si>
+  <si>
+    <t>Wakulla</t>
+  </si>
+  <si>
+    <t>Walton</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Footnotes</t>
+  </si>
+  <si>
+    <t>(2) Totals for the United States do not include data for Puerto Rico or the Virgin Islands.</t>
+  </si>
+  <si>
+    <t>NOTE: Includes workers covered by Unemployment Insurance (UI) and Unemployment Compensation for Federal Employees (UCFE) programs. Data are preliminary.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="#0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -232,6 +523,40 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -276,7 +601,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -406,11 +731,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFAAAAAA"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFAAAAAA"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFAAAAAA"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFAAAAAA"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFAAAAAA"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFAAAAAA"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFAAAAAA"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFAAAAAA"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -423,19 +918,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -470,6 +952,19 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -479,8 +974,162 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="10" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="12" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -540,6 +1189,60 @@
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C324375E-6038-42B8-B34F-6FB219B69228}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
           <a:headEnd/>
           <a:tailEnd/>
         </a:ln>
@@ -861,102 +1564,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -1462,7 +2165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84A095F-628C-45B4-931A-B97B30D9A722}">
   <dimension ref="A1:H129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
@@ -1478,3331 +2181,3331 @@
     <col min="8" max="8" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17">
+      <c r="A2" s="12">
         <v>2011</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="6">
         <v>61.2</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="6">
         <v>54.7</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="6">
         <v>9251721</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="6">
         <v>8267299</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="6">
         <v>984422</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="13">
         <v>10.6</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19">
+      <c r="A3" s="14">
         <v>2011</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="8">
         <v>61.1</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="8">
         <v>54.7</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="8">
         <v>9252149</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="8">
         <v>8280635</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="8">
         <v>971514</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="15">
         <v>10.5</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17">
+      <c r="A4" s="12">
         <v>2011</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="6">
         <v>61.1</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="6">
         <v>54.7</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="6">
         <v>9250847</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="6">
         <v>8290918</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="6">
         <v>959929</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="13">
         <v>10.4</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19">
+      <c r="A5" s="14">
         <v>2011</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="8">
         <v>61</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="8">
         <v>54.7</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="8">
         <v>9247888</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="8">
         <v>8297312</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="8">
         <v>950576</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="15">
         <v>10.3</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17">
+      <c r="A6" s="12">
         <v>2011</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="6">
         <v>60.9</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="6">
         <v>54.7</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="6">
         <v>9246195</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="6">
         <v>8302264</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="6">
         <v>943931</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="13">
         <v>10.199999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19">
+      <c r="A7" s="14">
         <v>2011</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="8">
         <v>60.9</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="8">
         <v>54.7</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="8">
         <v>9247380</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="8">
         <v>8309731</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="8">
         <v>937649</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="15">
         <v>10.1</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17">
+      <c r="A8" s="12">
         <v>2011</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="6">
         <v>60.8</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="6">
         <v>54.7</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="6">
         <v>9251715</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="6">
         <v>8322847</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="6">
         <v>928868</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="13">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19">
+      <c r="A9" s="14">
         <v>2011</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="8">
         <v>60.8</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="8">
         <v>54.8</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="8">
         <v>9261107</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="8">
         <v>8341528</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="8">
         <v>919579</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="15">
         <v>9.9</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17">
+      <c r="A10" s="12">
         <v>2011</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="6">
         <v>60.7</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="6">
         <v>54.8</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="6">
         <v>9265057</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="6">
         <v>8363923</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="6">
         <v>901134</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="13">
         <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19">
+      <c r="A11" s="14">
         <v>2011</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="8">
         <v>60.7</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="8">
         <v>54.9</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="8">
         <v>9276833</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="8">
         <v>8387525</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="8">
         <v>889308</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="15">
         <v>9.6</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17">
+      <c r="A12" s="12">
         <v>2011</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="6">
         <v>60.7</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="6">
         <v>55</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="6">
         <v>9285382</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="6">
         <v>8409108</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="6">
         <v>876274</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="13">
         <v>9.4</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19">
+      <c r="A13" s="14">
         <v>2011</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="8">
         <v>60.7</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="8">
         <v>55</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="8">
         <v>9289835</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="8">
         <v>8426736</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="8">
         <v>863099</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="15">
         <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17">
+      <c r="A14" s="12">
         <v>2012</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="6">
         <v>60.6</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="6">
         <v>55</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="6">
         <v>9292160</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="6">
         <v>8441097</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="6">
         <v>851063</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="13">
         <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19">
+      <c r="A15" s="14">
         <v>2012</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="8">
         <v>60.6</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="8">
         <v>55.1</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="8">
         <v>9296328</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="8">
         <v>8454837</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="8">
         <v>841491</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="15">
         <v>9.1</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17">
+      <c r="A16" s="12">
         <v>2012</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="6">
         <v>60.5</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="6">
         <v>55.1</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="6">
         <v>9303773</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="6">
         <v>8468399</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="6">
         <v>835374</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="13">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="19">
+      <c r="A17" s="14">
         <v>2012</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="8">
         <v>60.5</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="8">
         <v>55.1</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="8">
         <v>9312582</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="8">
         <v>8481558</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="8">
         <v>831024</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="15">
         <v>8.9</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17">
+      <c r="A18" s="12">
         <v>2012</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="6">
         <v>60.5</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="6">
         <v>55.1</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="6">
         <v>9322199</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="6">
         <v>8496177</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="6">
         <v>826022</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="13">
         <v>8.9</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19">
+      <c r="A19" s="14">
         <v>2012</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="8">
         <v>60.5</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="8">
         <v>55.2</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="8">
         <v>9332286</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="8">
         <v>8513758</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="8">
         <v>818528</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H19" s="15">
         <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17">
+      <c r="A20" s="12">
         <v>2012</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="6">
         <v>60.5</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="6">
         <v>55.3</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="6">
         <v>9342026</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="6">
         <v>8534305</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="6">
         <v>807721</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="13">
         <v>8.6</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19">
+      <c r="A21" s="14">
         <v>2012</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="8">
         <v>60.5</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="8">
         <v>55.3</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="8">
         <v>9352027</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="8">
         <v>8556664</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="8">
         <v>795363</v>
       </c>
-      <c r="H21" s="20">
+      <c r="H21" s="15">
         <v>8.5</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17">
+      <c r="A22" s="12">
         <v>2012</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="6">
         <v>60.5</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="6">
         <v>55.4</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="6">
         <v>9363037</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="6">
         <v>8578931</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="6">
         <v>784106</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H22" s="13">
         <v>8.4</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="19">
+      <c r="A23" s="14">
         <v>2012</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="8">
         <v>60.4</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="8">
         <v>55.4</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="8">
         <v>9372631</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="8">
         <v>8597972</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="8">
         <v>774659</v>
       </c>
-      <c r="H23" s="20">
+      <c r="H23" s="15">
         <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="17">
+      <c r="A24" s="12">
         <v>2012</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="6">
         <v>60.4</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="6">
         <v>55.5</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="6">
         <v>9379264</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="6">
         <v>8612023</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="6">
         <v>767241</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H24" s="13">
         <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="19">
+      <c r="A25" s="14">
         <v>2012</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="8">
         <v>60.3</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="8">
         <v>55.5</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="8">
         <v>9382701</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="8">
         <v>8621568</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="8">
         <v>761133</v>
       </c>
-      <c r="H25" s="20">
+      <c r="H25" s="15">
         <v>8.1</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="17">
+      <c r="A26" s="12">
         <v>2013</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="6">
         <v>60.3</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="6">
         <v>55.4</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="6">
         <v>9383321</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="6">
         <v>8628007</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="6">
         <v>755314</v>
       </c>
-      <c r="H26" s="18">
+      <c r="H26" s="13">
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="19">
+      <c r="A27" s="14">
         <v>2013</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="8">
         <v>60.2</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="8">
         <v>55.4</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="8">
         <v>9383328</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="8">
         <v>8634844</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G27" s="8">
         <v>748484</v>
       </c>
-      <c r="H27" s="20">
+      <c r="H27" s="15">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="17">
+      <c r="A28" s="12">
         <v>2013</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="6">
         <v>60.2</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="6">
         <v>55.4</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="6">
         <v>9385906</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="6">
         <v>8646346</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="6">
         <v>739560</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H28" s="13">
         <v>7.9</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="19">
+      <c r="A29" s="14">
         <v>2013</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="8">
         <v>60.2</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="8">
         <v>55.5</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="8">
         <v>9394008</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="8">
         <v>8664776</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G29" s="8">
         <v>729232</v>
       </c>
-      <c r="H29" s="20">
+      <c r="H29" s="15">
         <v>7.8</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="17">
+      <c r="A30" s="12">
         <v>2013</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="6">
         <v>60.2</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="6">
         <v>55.6</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="6">
         <v>9405649</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="6">
         <v>8686257</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="6">
         <v>719392</v>
       </c>
-      <c r="H30" s="18">
+      <c r="H30" s="13">
         <v>7.6</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="19">
+      <c r="A31" s="14">
         <v>2013</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="8">
         <v>60.2</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="8">
         <v>55.6</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="8">
         <v>9417639</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="8">
         <v>8706200</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G31" s="8">
         <v>711439</v>
       </c>
-      <c r="H31" s="20">
+      <c r="H31" s="15">
         <v>7.6</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="17">
+      <c r="A32" s="12">
         <v>2013</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="6">
         <v>60.1</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="6">
         <v>55.6</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="6">
         <v>9427528</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="6">
         <v>8722512</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G32" s="6">
         <v>705016</v>
       </c>
-      <c r="H32" s="18">
+      <c r="H32" s="13">
         <v>7.5</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="19">
+      <c r="A33" s="14">
         <v>2013</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="8">
         <v>60.1</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="8">
         <v>55.6</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="8">
         <v>9432470</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="8">
         <v>8735091</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G33" s="8">
         <v>697379</v>
       </c>
-      <c r="H33" s="20">
+      <c r="H33" s="15">
         <v>7.4</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="17">
+      <c r="A34" s="12">
         <v>2013</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="6">
         <v>60</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="6">
         <v>55.6</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="6">
         <v>9433614</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="6">
         <v>8746255</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G34" s="6">
         <v>687359</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H34" s="13">
         <v>7.3</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="19">
+      <c r="A35" s="14">
         <v>2013</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="8">
         <v>59.9</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="8">
         <v>55.6</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="8">
         <v>9436839</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="8">
         <v>8759566</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G35" s="8">
         <v>677273</v>
       </c>
-      <c r="H35" s="20">
+      <c r="H35" s="15">
         <v>7.2</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="17">
+      <c r="A36" s="12">
         <v>2013</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="6">
         <v>59.9</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="6">
         <v>55.7</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="6">
         <v>9446215</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="6">
         <v>8777668</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G36" s="6">
         <v>668547</v>
       </c>
-      <c r="H36" s="18">
+      <c r="H36" s="13">
         <v>7.1</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="19">
+      <c r="A37" s="14">
         <v>2013</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="8">
         <v>59.9</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D37" s="8">
         <v>55.7</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="8">
         <v>9461489</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F37" s="8">
         <v>8800149</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G37" s="8">
         <v>661340</v>
       </c>
-      <c r="H37" s="20">
+      <c r="H37" s="15">
         <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="17">
+      <c r="A38" s="12">
         <v>2014</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="6">
         <v>59.9</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="6">
         <v>55.8</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E38" s="6">
         <v>9479786</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="6">
         <v>8825090</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G38" s="6">
         <v>654696</v>
       </c>
-      <c r="H38" s="18">
+      <c r="H38" s="13">
         <v>6.9</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="19">
+      <c r="A39" s="14">
         <v>2014</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="8">
         <v>60</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D39" s="8">
         <v>55.9</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E39" s="8">
         <v>9497821</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="8">
         <v>8849988</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G39" s="8">
         <v>647833</v>
       </c>
-      <c r="H39" s="20">
+      <c r="H39" s="15">
         <v>6.8</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="17">
+      <c r="A40" s="12">
         <v>2014</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="6">
         <v>60</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="6">
         <v>55.9</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E40" s="6">
         <v>9513557</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="6">
         <v>8872130</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G40" s="6">
         <v>641427</v>
       </c>
-      <c r="H40" s="18">
+      <c r="H40" s="13">
         <v>6.7</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="19">
+      <c r="A41" s="14">
         <v>2014</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C41" s="8">
         <v>60</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D41" s="8">
         <v>56</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E41" s="8">
         <v>9525298</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F41" s="8">
         <v>8890013</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G41" s="8">
         <v>635285</v>
       </c>
-      <c r="H41" s="20">
+      <c r="H41" s="15">
         <v>6.7</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="17">
+      <c r="A42" s="12">
         <v>2014</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="6">
         <v>59.9</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="6">
         <v>56</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E42" s="6">
         <v>9534040</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="6">
         <v>8905898</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G42" s="6">
         <v>628142</v>
       </c>
-      <c r="H42" s="18">
+      <c r="H42" s="13">
         <v>6.6</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="19">
+      <c r="A43" s="14">
         <v>2014</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C43" s="8">
         <v>59.9</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D43" s="8">
         <v>56</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E43" s="8">
         <v>9543064</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F43" s="8">
         <v>8923099</v>
       </c>
-      <c r="G43" s="13">
+      <c r="G43" s="8">
         <v>619965</v>
       </c>
-      <c r="H43" s="20">
+      <c r="H43" s="15">
         <v>6.5</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="17">
+      <c r="A44" s="12">
         <v>2014</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="6">
         <v>59.9</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D44" s="6">
         <v>56.1</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E44" s="6">
         <v>9553381</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F44" s="6">
         <v>8941700</v>
       </c>
-      <c r="G44" s="11">
+      <c r="G44" s="6">
         <v>611681</v>
       </c>
-      <c r="H44" s="18">
+      <c r="H44" s="13">
         <v>6.4</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="19">
+      <c r="A45" s="14">
         <v>2014</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C45" s="8">
         <v>59.9</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D45" s="8">
         <v>56.1</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E45" s="8">
         <v>9565595</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F45" s="8">
         <v>8961454</v>
       </c>
-      <c r="G45" s="13">
+      <c r="G45" s="8">
         <v>604141</v>
       </c>
-      <c r="H45" s="20">
+      <c r="H45" s="15">
         <v>6.3</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="17">
+      <c r="A46" s="12">
         <v>2014</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="6">
         <v>59.8</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="6">
         <v>56.1</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E46" s="6">
         <v>9577872</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F46" s="6">
         <v>8980727</v>
       </c>
-      <c r="G46" s="11">
+      <c r="G46" s="6">
         <v>597145</v>
       </c>
-      <c r="H46" s="18">
+      <c r="H46" s="13">
         <v>6.2</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="19">
+      <c r="A47" s="14">
         <v>2014</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="13">
+      <c r="C47" s="8">
         <v>59.8</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D47" s="8">
         <v>56.1</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E47" s="8">
         <v>9586098</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F47" s="8">
         <v>8996931</v>
       </c>
-      <c r="G47" s="13">
+      <c r="G47" s="8">
         <v>589167</v>
       </c>
-      <c r="H47" s="20">
+      <c r="H47" s="15">
         <v>6.1</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="17">
+      <c r="A48" s="12">
         <v>2014</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="6">
         <v>59.7</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D48" s="6">
         <v>56.1</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E48" s="6">
         <v>9588482</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F48" s="6">
         <v>9008617</v>
       </c>
-      <c r="G48" s="11">
+      <c r="G48" s="6">
         <v>579865</v>
       </c>
-      <c r="H48" s="18">
+      <c r="H48" s="13">
         <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="19">
+      <c r="A49" s="14">
         <v>2014</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C49" s="13">
+      <c r="C49" s="8">
         <v>59.6</v>
       </c>
-      <c r="D49" s="13">
+      <c r="D49" s="8">
         <v>56</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E49" s="8">
         <v>9588236</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F49" s="8">
         <v>9017099</v>
       </c>
-      <c r="G49" s="13">
+      <c r="G49" s="8">
         <v>571137</v>
       </c>
-      <c r="H49" s="20">
+      <c r="H49" s="15">
         <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="17">
+      <c r="A50" s="12">
         <v>2015</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C50" s="6">
         <v>59.5</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D50" s="6">
         <v>56</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E50" s="6">
         <v>9588873</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F50" s="6">
         <v>9024705</v>
       </c>
-      <c r="G50" s="11">
+      <c r="G50" s="6">
         <v>564168</v>
       </c>
-      <c r="H50" s="18">
+      <c r="H50" s="13">
         <v>5.9</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="19">
+      <c r="A51" s="14">
         <v>2015</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C51" s="13">
+      <c r="C51" s="8">
         <v>59.4</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D51" s="8">
         <v>56</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E51" s="8">
         <v>9592040</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F51" s="8">
         <v>9032822</v>
       </c>
-      <c r="G51" s="13">
+      <c r="G51" s="8">
         <v>559218</v>
       </c>
-      <c r="H51" s="20">
+      <c r="H51" s="15">
         <v>5.8</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="17">
+      <c r="A52" s="12">
         <v>2015</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="11">
+      <c r="C52" s="6">
         <v>59.4</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D52" s="6">
         <v>55.9</v>
       </c>
-      <c r="E52" s="11">
+      <c r="E52" s="6">
         <v>9598497</v>
       </c>
-      <c r="F52" s="11">
+      <c r="F52" s="6">
         <v>9043681</v>
       </c>
-      <c r="G52" s="11">
+      <c r="G52" s="6">
         <v>554816</v>
       </c>
-      <c r="H52" s="18">
+      <c r="H52" s="13">
         <v>5.8</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="19">
+      <c r="A53" s="14">
         <v>2015</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="13">
+      <c r="C53" s="8">
         <v>59.3</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D53" s="8">
         <v>55.9</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E53" s="8">
         <v>9607811</v>
       </c>
-      <c r="F53" s="13">
+      <c r="F53" s="8">
         <v>9058084</v>
       </c>
-      <c r="G53" s="13">
+      <c r="G53" s="8">
         <v>549727</v>
       </c>
-      <c r="H53" s="20">
+      <c r="H53" s="15">
         <v>5.7</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="17">
+      <c r="A54" s="12">
         <v>2015</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="11">
+      <c r="C54" s="6">
         <v>59.3</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D54" s="6">
         <v>56</v>
       </c>
-      <c r="E54" s="11">
+      <c r="E54" s="6">
         <v>9618147</v>
       </c>
-      <c r="F54" s="11">
+      <c r="F54" s="6">
         <v>9074570</v>
       </c>
-      <c r="G54" s="11">
+      <c r="G54" s="6">
         <v>543577</v>
       </c>
-      <c r="H54" s="18">
+      <c r="H54" s="13">
         <v>5.7</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="19">
+      <c r="A55" s="14">
         <v>2015</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="13">
+      <c r="C55" s="8">
         <v>59.3</v>
       </c>
-      <c r="D55" s="13">
+      <c r="D55" s="8">
         <v>56</v>
       </c>
-      <c r="E55" s="13">
+      <c r="E55" s="8">
         <v>9627791</v>
       </c>
-      <c r="F55" s="13">
+      <c r="F55" s="8">
         <v>9091449</v>
       </c>
-      <c r="G55" s="13">
+      <c r="G55" s="8">
         <v>536342</v>
       </c>
-      <c r="H55" s="20">
+      <c r="H55" s="15">
         <v>5.6</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="17">
+      <c r="A56" s="12">
         <v>2015</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="11">
+      <c r="C56" s="6">
         <v>59.2</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D56" s="6">
         <v>56</v>
       </c>
-      <c r="E56" s="11">
+      <c r="E56" s="6">
         <v>9637406</v>
       </c>
-      <c r="F56" s="11">
+      <c r="F56" s="6">
         <v>9108581</v>
       </c>
-      <c r="G56" s="11">
+      <c r="G56" s="6">
         <v>528825</v>
       </c>
-      <c r="H56" s="18">
+      <c r="H56" s="13">
         <v>5.5</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="19">
+      <c r="A57" s="14">
         <v>2015</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C57" s="13">
+      <c r="C57" s="8">
         <v>59.2</v>
       </c>
-      <c r="D57" s="13">
+      <c r="D57" s="8">
         <v>56</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E57" s="8">
         <v>9648341</v>
       </c>
-      <c r="F57" s="13">
+      <c r="F57" s="8">
         <v>9126443</v>
       </c>
-      <c r="G57" s="13">
+      <c r="G57" s="8">
         <v>521898</v>
       </c>
-      <c r="H57" s="20">
+      <c r="H57" s="15">
         <v>5.4</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="17">
+      <c r="A58" s="12">
         <v>2015</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C58" s="11">
+      <c r="C58" s="6">
         <v>59.1</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D58" s="6">
         <v>56</v>
       </c>
-      <c r="E58" s="11">
+      <c r="E58" s="6">
         <v>9661738</v>
       </c>
-      <c r="F58" s="11">
+      <c r="F58" s="6">
         <v>9146394</v>
       </c>
-      <c r="G58" s="11">
+      <c r="G58" s="6">
         <v>515344</v>
       </c>
-      <c r="H58" s="18">
+      <c r="H58" s="13">
         <v>5.3</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="19">
+      <c r="A59" s="14">
         <v>2015</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C59" s="13">
+      <c r="C59" s="8">
         <v>59.1</v>
       </c>
-      <c r="D59" s="13">
+      <c r="D59" s="8">
         <v>56</v>
       </c>
-      <c r="E59" s="13">
+      <c r="E59" s="8">
         <v>9679856</v>
       </c>
-      <c r="F59" s="13">
+      <c r="F59" s="8">
         <v>9170460</v>
       </c>
-      <c r="G59" s="13">
+      <c r="G59" s="8">
         <v>509396</v>
       </c>
-      <c r="H59" s="20">
+      <c r="H59" s="15">
         <v>5.3</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="17">
+      <c r="A60" s="12">
         <v>2015</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="11">
+      <c r="C60" s="6">
         <v>59.2</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D60" s="6">
         <v>56.1</v>
       </c>
-      <c r="E60" s="11">
+      <c r="E60" s="6">
         <v>9702643</v>
       </c>
-      <c r="F60" s="11">
+      <c r="F60" s="6">
         <v>9198031</v>
       </c>
-      <c r="G60" s="11">
+      <c r="G60" s="6">
         <v>504612</v>
       </c>
-      <c r="H60" s="18">
+      <c r="H60" s="13">
         <v>5.2</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="19">
+      <c r="A61" s="14">
         <v>2015</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C61" s="13">
+      <c r="C61" s="8">
         <v>59.2</v>
       </c>
-      <c r="D61" s="13">
+      <c r="D61" s="8">
         <v>56.2</v>
       </c>
-      <c r="E61" s="13">
+      <c r="E61" s="8">
         <v>9726210</v>
       </c>
-      <c r="F61" s="13">
+      <c r="F61" s="8">
         <v>9226214</v>
       </c>
-      <c r="G61" s="13">
+      <c r="G61" s="8">
         <v>499996</v>
       </c>
-      <c r="H61" s="20">
+      <c r="H61" s="15">
         <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="17">
+      <c r="A62" s="12">
         <v>2016</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C62" s="11">
+      <c r="C62" s="6">
         <v>59.2</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D62" s="6">
         <v>56.2</v>
       </c>
-      <c r="E62" s="11">
+      <c r="E62" s="6">
         <v>9746916</v>
       </c>
-      <c r="F62" s="11">
+      <c r="F62" s="6">
         <v>9252093</v>
       </c>
-      <c r="G62" s="11">
+      <c r="G62" s="6">
         <v>494823</v>
       </c>
-      <c r="H62" s="18">
+      <c r="H62" s="13">
         <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="19">
+      <c r="A63" s="14">
         <v>2016</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C63" s="13">
+      <c r="C63" s="8">
         <v>59.2</v>
       </c>
-      <c r="D63" s="13">
+      <c r="D63" s="8">
         <v>56.3</v>
       </c>
-      <c r="E63" s="13">
+      <c r="E63" s="8">
         <v>9763853</v>
       </c>
-      <c r="F63" s="13">
+      <c r="F63" s="8">
         <v>9274276</v>
       </c>
-      <c r="G63" s="13">
+      <c r="G63" s="8">
         <v>489577</v>
       </c>
-      <c r="H63" s="20">
+      <c r="H63" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="17">
+      <c r="A64" s="12">
         <v>2016</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C64" s="11">
+      <c r="C64" s="6">
         <v>59.2</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D64" s="6">
         <v>56.3</v>
       </c>
-      <c r="E64" s="11">
+      <c r="E64" s="6">
         <v>9777290</v>
       </c>
-      <c r="F64" s="11">
+      <c r="F64" s="6">
         <v>9292824</v>
       </c>
-      <c r="G64" s="11">
+      <c r="G64" s="6">
         <v>484466</v>
       </c>
-      <c r="H64" s="18">
+      <c r="H64" s="13">
         <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="19">
+      <c r="A65" s="14">
         <v>2016</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="B65" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C65" s="13">
+      <c r="C65" s="8">
         <v>59.2</v>
       </c>
-      <c r="D65" s="13">
+      <c r="D65" s="8">
         <v>56.3</v>
       </c>
-      <c r="E65" s="13">
+      <c r="E65" s="8">
         <v>9790156</v>
       </c>
-      <c r="F65" s="13">
+      <c r="F65" s="8">
         <v>9309537</v>
       </c>
-      <c r="G65" s="13">
+      <c r="G65" s="8">
         <v>480619</v>
       </c>
-      <c r="H65" s="20">
+      <c r="H65" s="15">
         <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="17">
+      <c r="A66" s="12">
         <v>2016</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C66" s="11">
+      <c r="C66" s="6">
         <v>59.2</v>
       </c>
-      <c r="D66" s="11">
+      <c r="D66" s="6">
         <v>56.3</v>
       </c>
-      <c r="E66" s="11">
+      <c r="E66" s="6">
         <v>9806455</v>
       </c>
-      <c r="F66" s="11">
+      <c r="F66" s="6">
         <v>9327449</v>
       </c>
-      <c r="G66" s="11">
+      <c r="G66" s="6">
         <v>479006</v>
       </c>
-      <c r="H66" s="18">
+      <c r="H66" s="13">
         <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="19">
+      <c r="A67" s="14">
         <v>2016</v>
       </c>
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C67" s="13">
+      <c r="C67" s="8">
         <v>59.2</v>
       </c>
-      <c r="D67" s="13">
+      <c r="D67" s="8">
         <v>56.3</v>
       </c>
-      <c r="E67" s="13">
+      <c r="E67" s="8">
         <v>9826989</v>
       </c>
-      <c r="F67" s="13">
+      <c r="F67" s="8">
         <v>9347749</v>
       </c>
-      <c r="G67" s="13">
+      <c r="G67" s="8">
         <v>479240</v>
       </c>
-      <c r="H67" s="20">
+      <c r="H67" s="15">
         <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="17">
+      <c r="A68" s="12">
         <v>2016</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C68" s="11">
+      <c r="C68" s="6">
         <v>59.2</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D68" s="6">
         <v>56.3</v>
       </c>
-      <c r="E68" s="11">
+      <c r="E68" s="6">
         <v>9850017</v>
       </c>
-      <c r="F68" s="11">
+      <c r="F68" s="6">
         <v>9369741</v>
       </c>
-      <c r="G68" s="11">
+      <c r="G68" s="6">
         <v>480276</v>
       </c>
-      <c r="H68" s="18">
+      <c r="H68" s="13">
         <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="19">
+      <c r="A69" s="14">
         <v>2016</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="B69" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C69" s="13">
+      <c r="C69" s="8">
         <v>59.3</v>
       </c>
-      <c r="D69" s="13">
+      <c r="D69" s="8">
         <v>56.4</v>
       </c>
-      <c r="E69" s="13">
+      <c r="E69" s="8">
         <v>9873290</v>
       </c>
-      <c r="F69" s="13">
+      <c r="F69" s="8">
         <v>9391728</v>
       </c>
-      <c r="G69" s="13">
+      <c r="G69" s="8">
         <v>481562</v>
       </c>
-      <c r="H69" s="20">
+      <c r="H69" s="15">
         <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="17">
+      <c r="A70" s="12">
         <v>2016</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C70" s="11">
+      <c r="C70" s="6">
         <v>59.3</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D70" s="6">
         <v>56.4</v>
       </c>
-      <c r="E70" s="11">
+      <c r="E70" s="6">
         <v>9894617</v>
       </c>
-      <c r="F70" s="11">
+      <c r="F70" s="6">
         <v>9411626</v>
       </c>
-      <c r="G70" s="11">
+      <c r="G70" s="6">
         <v>482991</v>
       </c>
-      <c r="H70" s="18">
+      <c r="H70" s="13">
         <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="19">
+      <c r="A71" s="14">
         <v>2016</v>
       </c>
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C71" s="13">
+      <c r="C71" s="8">
         <v>59.3</v>
       </c>
-      <c r="D71" s="13">
+      <c r="D71" s="8">
         <v>56.4</v>
       </c>
-      <c r="E71" s="13">
+      <c r="E71" s="8">
         <v>9912032</v>
       </c>
-      <c r="F71" s="13">
+      <c r="F71" s="8">
         <v>9428996</v>
       </c>
-      <c r="G71" s="13">
+      <c r="G71" s="8">
         <v>483036</v>
       </c>
-      <c r="H71" s="20">
+      <c r="H71" s="15">
         <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="17">
+      <c r="A72" s="12">
         <v>2016</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C72" s="11">
+      <c r="C72" s="6">
         <v>59.3</v>
       </c>
-      <c r="D72" s="11">
+      <c r="D72" s="6">
         <v>56.4</v>
       </c>
-      <c r="E72" s="11">
+      <c r="E72" s="6">
         <v>9926694</v>
       </c>
-      <c r="F72" s="11">
+      <c r="F72" s="6">
         <v>9446908</v>
       </c>
-      <c r="G72" s="11">
+      <c r="G72" s="6">
         <v>479786</v>
       </c>
-      <c r="H72" s="18">
+      <c r="H72" s="13">
         <v>4.8</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="19">
+      <c r="A73" s="14">
         <v>2016</v>
       </c>
-      <c r="B73" s="12" t="s">
+      <c r="B73" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C73" s="13">
+      <c r="C73" s="8">
         <v>59.3</v>
       </c>
-      <c r="D73" s="13">
+      <c r="D73" s="8">
         <v>56.5</v>
       </c>
-      <c r="E73" s="13">
+      <c r="E73" s="8">
         <v>9941833</v>
       </c>
-      <c r="F73" s="13">
+      <c r="F73" s="8">
         <v>9468761</v>
       </c>
-      <c r="G73" s="13">
+      <c r="G73" s="8">
         <v>473072</v>
       </c>
-      <c r="H73" s="20">
+      <c r="H73" s="15">
         <v>4.8</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="17">
+      <c r="A74" s="12">
         <v>2017</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C74" s="11">
+      <c r="C74" s="6">
         <v>59.3</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D74" s="6">
         <v>56.5</v>
       </c>
-      <c r="E74" s="11">
+      <c r="E74" s="6">
         <v>9959680</v>
       </c>
-      <c r="F74" s="11">
+      <c r="F74" s="6">
         <v>9495705</v>
       </c>
-      <c r="G74" s="11">
+      <c r="G74" s="6">
         <v>463975</v>
       </c>
-      <c r="H74" s="18">
+      <c r="H74" s="13">
         <v>4.7</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="19">
+      <c r="A75" s="14">
         <v>2017</v>
       </c>
-      <c r="B75" s="12" t="s">
+      <c r="B75" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C75" s="13">
+      <c r="C75" s="8">
         <v>59.3</v>
       </c>
-      <c r="D75" s="13">
+      <c r="D75" s="8">
         <v>56.6</v>
       </c>
-      <c r="E75" s="13">
+      <c r="E75" s="8">
         <v>9980408</v>
       </c>
-      <c r="F75" s="13">
+      <c r="F75" s="8">
         <v>9527052</v>
       </c>
-      <c r="G75" s="13">
+      <c r="G75" s="8">
         <v>453356</v>
       </c>
-      <c r="H75" s="20">
+      <c r="H75" s="15">
         <v>4.5</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="17">
+      <c r="A76" s="12">
         <v>2017</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C76" s="11">
+      <c r="C76" s="6">
         <v>59.4</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D76" s="6">
         <v>56.7</v>
       </c>
-      <c r="E76" s="11">
+      <c r="E76" s="6">
         <v>10002242</v>
       </c>
-      <c r="F76" s="11">
+      <c r="F76" s="6">
         <v>9559207</v>
       </c>
-      <c r="G76" s="11">
+      <c r="G76" s="6">
         <v>443035</v>
       </c>
-      <c r="H76" s="18">
+      <c r="H76" s="13">
         <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="19">
+      <c r="A77" s="14">
         <v>2017</v>
       </c>
-      <c r="B77" s="12" t="s">
+      <c r="B77" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C77" s="13">
+      <c r="C77" s="8">
         <v>59.4</v>
       </c>
-      <c r="D77" s="13">
+      <c r="D77" s="8">
         <v>56.8</v>
       </c>
-      <c r="E77" s="13">
+      <c r="E77" s="8">
         <v>10021874</v>
       </c>
-      <c r="F77" s="13">
+      <c r="F77" s="8">
         <v>9587640</v>
       </c>
-      <c r="G77" s="13">
+      <c r="G77" s="8">
         <v>434234</v>
       </c>
-      <c r="H77" s="20">
+      <c r="H77" s="15">
         <v>4.3</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="17">
+      <c r="A78" s="12">
         <v>2017</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C78" s="11">
+      <c r="C78" s="6">
         <v>59.4</v>
       </c>
-      <c r="D78" s="11">
+      <c r="D78" s="6">
         <v>56.9</v>
       </c>
-      <c r="E78" s="11">
+      <c r="E78" s="6">
         <v>10035568</v>
       </c>
-      <c r="F78" s="11">
+      <c r="F78" s="6">
         <v>9608502</v>
       </c>
-      <c r="G78" s="11">
+      <c r="G78" s="6">
         <v>427066</v>
       </c>
-      <c r="H78" s="18">
+      <c r="H78" s="13">
         <v>4.3</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="19">
+      <c r="A79" s="14">
         <v>2017</v>
       </c>
-      <c r="B79" s="12" t="s">
+      <c r="B79" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C79" s="13">
+      <c r="C79" s="8">
         <v>59.3</v>
       </c>
-      <c r="D79" s="13">
+      <c r="D79" s="8">
         <v>56.9</v>
       </c>
-      <c r="E79" s="13">
+      <c r="E79" s="8">
         <v>10042754</v>
       </c>
-      <c r="F79" s="13">
+      <c r="F79" s="8">
         <v>9620715</v>
       </c>
-      <c r="G79" s="13">
+      <c r="G79" s="8">
         <v>422039</v>
       </c>
-      <c r="H79" s="20">
+      <c r="H79" s="15">
         <v>4.2</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="17">
+      <c r="A80" s="12">
         <v>2017</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C80" s="11">
+      <c r="C80" s="6">
         <v>59.3</v>
       </c>
-      <c r="D80" s="11">
+      <c r="D80" s="6">
         <v>56.8</v>
       </c>
-      <c r="E80" s="11">
+      <c r="E80" s="6">
         <v>10045858</v>
       </c>
-      <c r="F80" s="11">
+      <c r="F80" s="6">
         <v>9626706</v>
       </c>
-      <c r="G80" s="11">
+      <c r="G80" s="6">
         <v>419152</v>
       </c>
-      <c r="H80" s="18">
+      <c r="H80" s="13">
         <v>4.2</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="19">
+      <c r="A81" s="14">
         <v>2017</v>
       </c>
-      <c r="B81" s="12" t="s">
+      <c r="B81" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C81" s="13">
+      <c r="C81" s="8">
         <v>59.2</v>
       </c>
-      <c r="D81" s="13">
+      <c r="D81" s="8">
         <v>56.7</v>
       </c>
-      <c r="E81" s="13">
+      <c r="E81" s="8">
         <v>10047193</v>
       </c>
-      <c r="F81" s="13">
+      <c r="F81" s="8">
         <v>9630155</v>
       </c>
-      <c r="G81" s="13">
+      <c r="G81" s="8">
         <v>417038</v>
       </c>
-      <c r="H81" s="20">
+      <c r="H81" s="15">
         <v>4.2</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="17">
+      <c r="A82" s="12">
         <v>2017</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B82" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C82" s="11">
+      <c r="C82" s="6">
         <v>59.1</v>
       </c>
-      <c r="D82" s="11">
+      <c r="D82" s="6">
         <v>56.7</v>
       </c>
-      <c r="E82" s="11">
+      <c r="E82" s="6">
         <v>10049386</v>
       </c>
-      <c r="F82" s="11">
+      <c r="F82" s="6">
         <v>9634812</v>
       </c>
-      <c r="G82" s="11">
+      <c r="G82" s="6">
         <v>414574</v>
       </c>
-      <c r="H82" s="18">
+      <c r="H82" s="13">
         <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="19">
+      <c r="A83" s="14">
         <v>2017</v>
       </c>
-      <c r="B83" s="12" t="s">
+      <c r="B83" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C83" s="13">
+      <c r="C83" s="8">
         <v>59.1</v>
       </c>
-      <c r="D83" s="13">
+      <c r="D83" s="8">
         <v>56.7</v>
       </c>
-      <c r="E83" s="13">
+      <c r="E83" s="8">
         <v>10055130</v>
       </c>
-      <c r="F83" s="13">
+      <c r="F83" s="8">
         <v>9643784</v>
       </c>
-      <c r="G83" s="13">
+      <c r="G83" s="8">
         <v>411346</v>
       </c>
-      <c r="H83" s="20">
+      <c r="H83" s="15">
         <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="17">
+      <c r="A84" s="12">
         <v>2017</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C84" s="11">
+      <c r="C84" s="6">
         <v>59.1</v>
       </c>
-      <c r="D84" s="11">
+      <c r="D84" s="6">
         <v>56.7</v>
       </c>
-      <c r="E84" s="11">
+      <c r="E84" s="6">
         <v>10065132</v>
       </c>
-      <c r="F84" s="11">
+      <c r="F84" s="6">
         <v>9657617</v>
       </c>
-      <c r="G84" s="11">
+      <c r="G84" s="6">
         <v>407515</v>
       </c>
-      <c r="H84" s="18">
+      <c r="H84" s="13">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="19">
+      <c r="A85" s="14">
         <v>2017</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="B85" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C85" s="13">
+      <c r="C85" s="8">
         <v>59.1</v>
       </c>
-      <c r="D85" s="13">
+      <c r="D85" s="8">
         <v>56.7</v>
       </c>
-      <c r="E85" s="13">
+      <c r="E85" s="8">
         <v>10078698</v>
       </c>
-      <c r="F85" s="13">
+      <c r="F85" s="8">
         <v>9676332</v>
       </c>
-      <c r="G85" s="13">
+      <c r="G85" s="8">
         <v>402366</v>
       </c>
-      <c r="H85" s="20">
+      <c r="H85" s="15">
         <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="17">
+      <c r="A86" s="12">
         <v>2018</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C86" s="11">
+      <c r="C86" s="6">
         <v>59.1</v>
       </c>
-      <c r="D86" s="11">
+      <c r="D86" s="6">
         <v>56.8</v>
       </c>
-      <c r="E86" s="11">
+      <c r="E86" s="6">
         <v>10094868</v>
       </c>
-      <c r="F86" s="11">
+      <c r="F86" s="6">
         <v>9698758</v>
       </c>
-      <c r="G86" s="11">
+      <c r="G86" s="6">
         <v>396110</v>
       </c>
-      <c r="H86" s="18">
+      <c r="H86" s="13">
         <v>3.9</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="19">
+      <c r="A87" s="14">
         <v>2018</v>
       </c>
-      <c r="B87" s="12" t="s">
+      <c r="B87" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C87" s="13">
+      <c r="C87" s="8">
         <v>59.1</v>
       </c>
-      <c r="D87" s="13">
+      <c r="D87" s="8">
         <v>56.9</v>
       </c>
-      <c r="E87" s="13">
+      <c r="E87" s="8">
         <v>10112442</v>
       </c>
-      <c r="F87" s="13">
+      <c r="F87" s="8">
         <v>9722964</v>
       </c>
-      <c r="G87" s="13">
+      <c r="G87" s="8">
         <v>389478</v>
       </c>
-      <c r="H87" s="20">
+      <c r="H87" s="15">
         <v>3.9</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="17">
+      <c r="A88" s="12">
         <v>2018</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C88" s="11">
+      <c r="C88" s="6">
         <v>59.2</v>
       </c>
-      <c r="D88" s="11">
+      <c r="D88" s="6">
         <v>56.9</v>
       </c>
-      <c r="E88" s="11">
+      <c r="E88" s="6">
         <v>10129065</v>
       </c>
-      <c r="F88" s="11">
+      <c r="F88" s="6">
         <v>9746259</v>
       </c>
-      <c r="G88" s="11">
+      <c r="G88" s="6">
         <v>382806</v>
       </c>
-      <c r="H88" s="18">
+      <c r="H88" s="13">
         <v>3.8</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="19">
+      <c r="A89" s="14">
         <v>2018</v>
       </c>
-      <c r="B89" s="12" t="s">
+      <c r="B89" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C89" s="13">
+      <c r="C89" s="8">
         <v>59.2</v>
       </c>
-      <c r="D89" s="13">
+      <c r="D89" s="8">
         <v>57</v>
       </c>
-      <c r="E89" s="13">
+      <c r="E89" s="8">
         <v>10142429</v>
       </c>
-      <c r="F89" s="13">
+      <c r="F89" s="8">
         <v>9766492</v>
       </c>
-      <c r="G89" s="13">
+      <c r="G89" s="8">
         <v>375937</v>
       </c>
-      <c r="H89" s="20">
+      <c r="H89" s="15">
         <v>3.7</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="17">
+      <c r="A90" s="12">
         <v>2018</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="B90" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C90" s="11">
+      <c r="C90" s="6">
         <v>59.2</v>
       </c>
-      <c r="D90" s="11">
+      <c r="D90" s="6">
         <v>57</v>
       </c>
-      <c r="E90" s="11">
+      <c r="E90" s="6">
         <v>10152646</v>
       </c>
-      <c r="F90" s="11">
+      <c r="F90" s="6">
         <v>9783249</v>
       </c>
-      <c r="G90" s="11">
+      <c r="G90" s="6">
         <v>369397</v>
       </c>
-      <c r="H90" s="18">
+      <c r="H90" s="13">
         <v>3.6</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="19">
+      <c r="A91" s="14">
         <v>2018</v>
       </c>
-      <c r="B91" s="12" t="s">
+      <c r="B91" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C91" s="13">
+      <c r="C91" s="8">
         <v>59.1</v>
       </c>
-      <c r="D91" s="13">
+      <c r="D91" s="8">
         <v>57</v>
       </c>
-      <c r="E91" s="13">
+      <c r="E91" s="8">
         <v>10160799</v>
       </c>
-      <c r="F91" s="13">
+      <c r="F91" s="8">
         <v>9797419</v>
       </c>
-      <c r="G91" s="13">
+      <c r="G91" s="8">
         <v>363380</v>
       </c>
-      <c r="H91" s="20">
+      <c r="H91" s="15">
         <v>3.6</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="17">
+      <c r="A92" s="12">
         <v>2018</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B92" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C92" s="11">
+      <c r="C92" s="6">
         <v>59.1</v>
       </c>
-      <c r="D92" s="11">
+      <c r="D92" s="6">
         <v>57</v>
       </c>
-      <c r="E92" s="11">
+      <c r="E92" s="6">
         <v>10168495</v>
       </c>
-      <c r="F92" s="11">
+      <c r="F92" s="6">
         <v>9810226</v>
       </c>
-      <c r="G92" s="11">
+      <c r="G92" s="6">
         <v>358269</v>
       </c>
-      <c r="H92" s="18">
+      <c r="H92" s="13">
         <v>3.5</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="19">
+      <c r="A93" s="14">
         <v>2018</v>
       </c>
-      <c r="B93" s="12" t="s">
+      <c r="B93" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C93" s="13">
+      <c r="C93" s="8">
         <v>59.1</v>
       </c>
-      <c r="D93" s="13">
+      <c r="D93" s="8">
         <v>57</v>
       </c>
-      <c r="E93" s="13">
+      <c r="E93" s="8">
         <v>10178508</v>
       </c>
-      <c r="F93" s="13">
+      <c r="F93" s="8">
         <v>9823085</v>
       </c>
-      <c r="G93" s="13">
+      <c r="G93" s="8">
         <v>355423</v>
       </c>
-      <c r="H93" s="20">
+      <c r="H93" s="15">
         <v>3.5</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="17">
+      <c r="A94" s="12">
         <v>2018</v>
       </c>
-      <c r="B94" s="10" t="s">
+      <c r="B94" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C94" s="11">
+      <c r="C94" s="6">
         <v>59.1</v>
       </c>
-      <c r="D94" s="11">
+      <c r="D94" s="6">
         <v>57</v>
       </c>
-      <c r="E94" s="11">
+      <c r="E94" s="6">
         <v>10191438</v>
       </c>
-      <c r="F94" s="11">
+      <c r="F94" s="6">
         <v>9836152</v>
       </c>
-      <c r="G94" s="11">
+      <c r="G94" s="6">
         <v>355286</v>
       </c>
-      <c r="H94" s="18">
+      <c r="H94" s="13">
         <v>3.5</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="19">
+      <c r="A95" s="14">
         <v>2018</v>
       </c>
-      <c r="B95" s="12" t="s">
+      <c r="B95" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C95" s="13">
+      <c r="C95" s="8">
         <v>59.1</v>
       </c>
-      <c r="D95" s="13">
+      <c r="D95" s="8">
         <v>57</v>
       </c>
-      <c r="E95" s="13">
+      <c r="E95" s="8">
         <v>10205938</v>
       </c>
-      <c r="F95" s="13">
+      <c r="F95" s="8">
         <v>9848907</v>
       </c>
-      <c r="G95" s="13">
+      <c r="G95" s="8">
         <v>357031</v>
       </c>
-      <c r="H95" s="20">
+      <c r="H95" s="15">
         <v>3.5</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="17">
+      <c r="A96" s="12">
         <v>2018</v>
       </c>
-      <c r="B96" s="10" t="s">
+      <c r="B96" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C96" s="11">
+      <c r="C96" s="6">
         <v>59.1</v>
       </c>
-      <c r="D96" s="11">
+      <c r="D96" s="6">
         <v>57</v>
       </c>
-      <c r="E96" s="11">
+      <c r="E96" s="6">
         <v>10220222</v>
       </c>
-      <c r="F96" s="11">
+      <c r="F96" s="6">
         <v>9861136</v>
       </c>
-      <c r="G96" s="11">
+      <c r="G96" s="6">
         <v>359086</v>
       </c>
-      <c r="H96" s="18">
+      <c r="H96" s="13">
         <v>3.5</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="19">
+      <c r="A97" s="14">
         <v>2018</v>
       </c>
-      <c r="B97" s="12" t="s">
+      <c r="B97" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C97" s="13">
+      <c r="C97" s="8">
         <v>59.1</v>
       </c>
-      <c r="D97" s="13">
+      <c r="D97" s="8">
         <v>57.1</v>
       </c>
-      <c r="E97" s="13">
+      <c r="E97" s="8">
         <v>10232330</v>
       </c>
-      <c r="F97" s="13">
+      <c r="F97" s="8">
         <v>9872842</v>
       </c>
-      <c r="G97" s="13">
+      <c r="G97" s="8">
         <v>359488</v>
       </c>
-      <c r="H97" s="20">
+      <c r="H97" s="15">
         <v>3.5</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="17">
+      <c r="A98" s="12">
         <v>2019</v>
       </c>
-      <c r="B98" s="10" t="s">
+      <c r="B98" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C98" s="11">
+      <c r="C98" s="6">
         <v>59.1</v>
       </c>
-      <c r="D98" s="11">
+      <c r="D98" s="6">
         <v>57.1</v>
       </c>
-      <c r="E98" s="11">
+      <c r="E98" s="6">
         <v>10240878</v>
       </c>
-      <c r="F98" s="11">
+      <c r="F98" s="6">
         <v>9884007</v>
       </c>
-      <c r="G98" s="11">
+      <c r="G98" s="6">
         <v>356871</v>
       </c>
-      <c r="H98" s="18">
+      <c r="H98" s="13">
         <v>3.5</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="19">
+      <c r="A99" s="14">
         <v>2019</v>
       </c>
-      <c r="B99" s="12" t="s">
+      <c r="B99" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C99" s="13">
+      <c r="C99" s="8">
         <v>59.1</v>
       </c>
-      <c r="D99" s="13">
+      <c r="D99" s="8">
         <v>57.1</v>
       </c>
-      <c r="E99" s="13">
+      <c r="E99" s="8">
         <v>10246115</v>
       </c>
-      <c r="F99" s="13">
+      <c r="F99" s="8">
         <v>9895249</v>
       </c>
-      <c r="G99" s="13">
+      <c r="G99" s="8">
         <v>350866</v>
       </c>
-      <c r="H99" s="20">
+      <c r="H99" s="15">
         <v>3.4</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="17">
+      <c r="A100" s="12">
         <v>2019</v>
       </c>
-      <c r="B100" s="10" t="s">
+      <c r="B100" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C100" s="11">
+      <c r="C100" s="6">
         <v>59.1</v>
       </c>
-      <c r="D100" s="11">
+      <c r="D100" s="6">
         <v>57.1</v>
       </c>
-      <c r="E100" s="11">
+      <c r="E100" s="6">
         <v>10251856</v>
       </c>
-      <c r="F100" s="11">
+      <c r="F100" s="6">
         <v>9908175</v>
       </c>
-      <c r="G100" s="11">
+      <c r="G100" s="6">
         <v>343681</v>
       </c>
-      <c r="H100" s="18">
+      <c r="H100" s="13">
         <v>3.4</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="19">
+      <c r="A101" s="14">
         <v>2019</v>
       </c>
-      <c r="B101" s="12" t="s">
+      <c r="B101" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C101" s="13">
+      <c r="C101" s="8">
         <v>59.1</v>
       </c>
-      <c r="D101" s="13">
+      <c r="D101" s="8">
         <v>57.1</v>
       </c>
-      <c r="E101" s="13">
+      <c r="E101" s="8">
         <v>10262411</v>
       </c>
-      <c r="F101" s="13">
+      <c r="F101" s="8">
         <v>9924815</v>
       </c>
-      <c r="G101" s="13">
+      <c r="G101" s="8">
         <v>337596</v>
       </c>
-      <c r="H101" s="20">
+      <c r="H101" s="15">
         <v>3.3</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="17">
+      <c r="A102" s="12">
         <v>2019</v>
       </c>
-      <c r="B102" s="10" t="s">
+      <c r="B102" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C102" s="11">
+      <c r="C102" s="6">
         <v>59.1</v>
       </c>
-      <c r="D102" s="11">
+      <c r="D102" s="6">
         <v>57.2</v>
       </c>
-      <c r="E102" s="11">
+      <c r="E102" s="6">
         <v>10279930</v>
       </c>
-      <c r="F102" s="11">
+      <c r="F102" s="6">
         <v>9945628</v>
       </c>
-      <c r="G102" s="11">
+      <c r="G102" s="6">
         <v>334302</v>
       </c>
-      <c r="H102" s="18">
+      <c r="H102" s="13">
         <v>3.3</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="19">
+      <c r="A103" s="14">
         <v>2019</v>
       </c>
-      <c r="B103" s="12" t="s">
+      <c r="B103" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C103" s="13">
+      <c r="C103" s="8">
         <v>59.2</v>
       </c>
-      <c r="D103" s="13">
+      <c r="D103" s="8">
         <v>57.3</v>
       </c>
-      <c r="E103" s="13">
+      <c r="E103" s="8">
         <v>10304147</v>
       </c>
-      <c r="F103" s="13">
+      <c r="F103" s="8">
         <v>9970073</v>
       </c>
-      <c r="G103" s="13">
+      <c r="G103" s="8">
         <v>334074</v>
       </c>
-      <c r="H103" s="20">
+      <c r="H103" s="15">
         <v>3.2</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="17">
+      <c r="A104" s="12">
         <v>2019</v>
       </c>
-      <c r="B104" s="10" t="s">
+      <c r="B104" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C104" s="11">
+      <c r="C104" s="6">
         <v>59.3</v>
       </c>
-      <c r="D104" s="11">
+      <c r="D104" s="6">
         <v>57.4</v>
       </c>
-      <c r="E104" s="11">
+      <c r="E104" s="6">
         <v>10332690</v>
       </c>
-      <c r="F104" s="11">
+      <c r="F104" s="6">
         <v>9996851</v>
       </c>
-      <c r="G104" s="11">
+      <c r="G104" s="6">
         <v>335839</v>
       </c>
-      <c r="H104" s="18">
+      <c r="H104" s="13">
         <v>3.3</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="19">
+      <c r="A105" s="14">
         <v>2019</v>
       </c>
-      <c r="B105" s="12" t="s">
+      <c r="B105" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C105" s="13">
+      <c r="C105" s="8">
         <v>59.4</v>
       </c>
-      <c r="D105" s="13">
+      <c r="D105" s="8">
         <v>57.5</v>
       </c>
-      <c r="E105" s="13">
+      <c r="E105" s="8">
         <v>10362186</v>
       </c>
-      <c r="F105" s="13">
+      <c r="F105" s="8">
         <v>10024780</v>
       </c>
-      <c r="G105" s="13">
+      <c r="G105" s="8">
         <v>337406</v>
       </c>
-      <c r="H105" s="20">
+      <c r="H105" s="15">
         <v>3.3</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="17">
+      <c r="A106" s="12">
         <v>2019</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="B106" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C106" s="11">
+      <c r="C106" s="6">
         <v>59.5</v>
       </c>
-      <c r="D106" s="11">
+      <c r="D106" s="6">
         <v>57.6</v>
       </c>
-      <c r="E106" s="11">
+      <c r="E106" s="6">
         <v>10391422</v>
       </c>
-      <c r="F106" s="11">
+      <c r="F106" s="6">
         <v>10054571</v>
       </c>
-      <c r="G106" s="11">
+      <c r="G106" s="6">
         <v>336851</v>
       </c>
-      <c r="H106" s="18">
+      <c r="H106" s="13">
         <v>3.2</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="19">
+      <c r="A107" s="14">
         <v>2019</v>
       </c>
-      <c r="B107" s="12" t="s">
+      <c r="B107" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C107" s="13">
+      <c r="C107" s="8">
         <v>59.6</v>
       </c>
-      <c r="D107" s="13">
+      <c r="D107" s="8">
         <v>57.6</v>
       </c>
-      <c r="E107" s="13">
+      <c r="E107" s="8">
         <v>10417919</v>
       </c>
-      <c r="F107" s="13">
+      <c r="F107" s="8">
         <v>10083201</v>
       </c>
-      <c r="G107" s="13">
+      <c r="G107" s="8">
         <v>334718</v>
       </c>
-      <c r="H107" s="20">
+      <c r="H107" s="15">
         <v>3.2</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="17">
+      <c r="A108" s="12">
         <v>2019</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="B108" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C108" s="11">
+      <c r="C108" s="6">
         <v>59.6</v>
       </c>
-      <c r="D108" s="11">
+      <c r="D108" s="6">
         <v>57.7</v>
       </c>
-      <c r="E108" s="11">
+      <c r="E108" s="6">
         <v>10438251</v>
       </c>
-      <c r="F108" s="11">
+      <c r="F108" s="6">
         <v>10104965</v>
       </c>
-      <c r="G108" s="11">
+      <c r="G108" s="6">
         <v>333286</v>
       </c>
-      <c r="H108" s="18">
+      <c r="H108" s="13">
         <v>3.2</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="19">
+      <c r="A109" s="14">
         <v>2019</v>
       </c>
-      <c r="B109" s="12" t="s">
+      <c r="B109" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C109" s="13">
+      <c r="C109" s="8">
         <v>59.6</v>
       </c>
-      <c r="D109" s="13">
+      <c r="D109" s="8">
         <v>57.7</v>
       </c>
-      <c r="E109" s="13">
+      <c r="E109" s="8">
         <v>10451550</v>
       </c>
-      <c r="F109" s="13">
+      <c r="F109" s="8">
         <v>10115912</v>
       </c>
-      <c r="G109" s="13">
+      <c r="G109" s="8">
         <v>335638</v>
       </c>
-      <c r="H109" s="20">
+      <c r="H109" s="15">
         <v>3.2</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="17">
+      <c r="A110" s="12">
         <v>2020</v>
       </c>
-      <c r="B110" s="10" t="s">
+      <c r="B110" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C110" s="11">
+      <c r="C110" s="6">
         <v>59.6</v>
       </c>
-      <c r="D110" s="11">
+      <c r="D110" s="6">
         <v>57.6</v>
       </c>
-      <c r="E110" s="11">
+      <c r="E110" s="6">
         <v>10458937</v>
       </c>
-      <c r="F110" s="11">
+      <c r="F110" s="6">
         <v>10116910</v>
       </c>
-      <c r="G110" s="11">
+      <c r="G110" s="6">
         <v>342027</v>
       </c>
-      <c r="H110" s="18">
+      <c r="H110" s="13">
         <v>3.3</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="19">
+      <c r="A111" s="14">
         <v>2020</v>
       </c>
-      <c r="B111" s="12" t="s">
+      <c r="B111" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C111" s="13">
+      <c r="C111" s="8">
         <v>59.5</v>
       </c>
-      <c r="D111" s="13">
+      <c r="D111" s="8">
         <v>57.5</v>
       </c>
-      <c r="E111" s="13">
+      <c r="E111" s="8">
         <v>10461404</v>
       </c>
-      <c r="F111" s="13">
+      <c r="F111" s="8">
         <v>10111574</v>
       </c>
-      <c r="G111" s="13">
+      <c r="G111" s="8">
         <v>349830</v>
       </c>
-      <c r="H111" s="20">
+      <c r="H111" s="15">
         <v>3.3</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="17">
+      <c r="A112" s="12">
         <v>2020</v>
       </c>
-      <c r="B112" s="10" t="s">
+      <c r="B112" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C112" s="11">
+      <c r="C112" s="6">
         <v>60.4</v>
       </c>
-      <c r="D112" s="11">
+      <c r="D112" s="6">
         <v>57.5</v>
       </c>
-      <c r="E112" s="11">
+      <c r="E112" s="6">
         <v>10629624</v>
       </c>
-      <c r="F112" s="11">
+      <c r="F112" s="6">
         <v>10106833</v>
       </c>
-      <c r="G112" s="11">
+      <c r="G112" s="6">
         <v>522791</v>
       </c>
-      <c r="H112" s="18">
+      <c r="H112" s="13">
         <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="19">
+      <c r="A113" s="14">
         <v>2020</v>
       </c>
-      <c r="B113" s="12" t="s">
+      <c r="B113" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C113" s="13">
+      <c r="C113" s="8">
         <v>55.5</v>
       </c>
-      <c r="D113" s="13">
+      <c r="D113" s="8">
         <v>47.7</v>
       </c>
-      <c r="E113" s="13">
+      <c r="E113" s="8">
         <v>9765316</v>
       </c>
-      <c r="F113" s="13">
+      <c r="F113" s="8">
         <v>8400513</v>
       </c>
-      <c r="G113" s="13">
+      <c r="G113" s="8">
         <v>1364803</v>
       </c>
-      <c r="H113" s="20">
+      <c r="H113" s="15">
         <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="17">
+      <c r="A114" s="12">
         <v>2020</v>
       </c>
-      <c r="B114" s="10" t="s">
+      <c r="B114" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C114" s="11">
+      <c r="C114" s="6">
         <v>56.5</v>
       </c>
-      <c r="D114" s="11">
+      <c r="D114" s="6">
         <v>48.4</v>
       </c>
-      <c r="E114" s="11">
+      <c r="E114" s="6">
         <v>9949585</v>
       </c>
-      <c r="F114" s="11">
+      <c r="F114" s="6">
         <v>8533164</v>
       </c>
-      <c r="G114" s="11">
+      <c r="G114" s="6">
         <v>1416421</v>
       </c>
-      <c r="H114" s="18">
+      <c r="H114" s="13">
         <v>14.2</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="19">
+      <c r="A115" s="14">
         <v>2020</v>
       </c>
-      <c r="B115" s="12" t="s">
+      <c r="B115" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C115" s="13">
+      <c r="C115" s="8">
         <v>56.1</v>
       </c>
-      <c r="D115" s="13">
+      <c r="D115" s="8">
         <v>49.6</v>
       </c>
-      <c r="E115" s="13">
+      <c r="E115" s="8">
         <v>9898486</v>
       </c>
-      <c r="F115" s="13">
+      <c r="F115" s="8">
         <v>8749388</v>
       </c>
-      <c r="G115" s="13">
+      <c r="G115" s="8">
         <v>1149098</v>
       </c>
-      <c r="H115" s="20">
+      <c r="H115" s="15">
         <v>11.6</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="17">
+      <c r="A116" s="12">
         <v>2020</v>
       </c>
-      <c r="B116" s="10" t="s">
+      <c r="B116" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C116" s="11">
+      <c r="C116" s="6">
         <v>57.3</v>
       </c>
-      <c r="D116" s="11">
+      <c r="D116" s="6">
         <v>50.7</v>
       </c>
-      <c r="E116" s="11">
+      <c r="E116" s="6">
         <v>10108143</v>
       </c>
-      <c r="F116" s="11">
+      <c r="F116" s="6">
         <v>8940935</v>
       </c>
-      <c r="G116" s="11">
+      <c r="G116" s="6">
         <v>1167208</v>
       </c>
-      <c r="H116" s="18">
+      <c r="H116" s="13">
         <v>11.5</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="19">
+      <c r="A117" s="14">
         <v>2020</v>
       </c>
-      <c r="B117" s="12" t="s">
+      <c r="B117" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C117" s="13">
+      <c r="C117" s="8">
         <v>56.5</v>
       </c>
-      <c r="D117" s="13">
+      <c r="D117" s="8">
         <v>52.1</v>
       </c>
-      <c r="E117" s="13">
+      <c r="E117" s="8">
         <v>9991016</v>
       </c>
-      <c r="F117" s="13">
+      <c r="F117" s="8">
         <v>9206578</v>
       </c>
-      <c r="G117" s="13">
+      <c r="G117" s="8">
         <v>784438</v>
       </c>
-      <c r="H117" s="20">
+      <c r="H117" s="15">
         <v>7.9</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="17">
+      <c r="A118" s="12">
         <v>2020</v>
       </c>
-      <c r="B118" s="10" t="s">
+      <c r="B118" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C118" s="11">
+      <c r="C118" s="6">
         <v>56.8</v>
       </c>
-      <c r="D118" s="11">
+      <c r="D118" s="6">
         <v>52.8</v>
       </c>
-      <c r="E118" s="11">
+      <c r="E118" s="6">
         <v>10052895</v>
       </c>
-      <c r="F118" s="11">
+      <c r="F118" s="6">
         <v>9333690</v>
       </c>
-      <c r="G118" s="11">
+      <c r="G118" s="6">
         <v>719205</v>
       </c>
-      <c r="H118" s="18">
+      <c r="H118" s="13">
         <v>7.2</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="19">
+      <c r="A119" s="14">
         <v>2020</v>
       </c>
-      <c r="B119" s="12" t="s">
+      <c r="B119" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C119" s="13">
+      <c r="C119" s="8">
         <v>56.5</v>
       </c>
-      <c r="D119" s="13">
+      <c r="D119" s="8">
         <v>53.2</v>
       </c>
-      <c r="E119" s="13">
+      <c r="E119" s="8">
         <v>10010524</v>
       </c>
-      <c r="F119" s="13">
+      <c r="F119" s="8">
         <v>9427112</v>
       </c>
-      <c r="G119" s="13">
+      <c r="G119" s="8">
         <v>583412</v>
       </c>
-      <c r="H119" s="20">
+      <c r="H119" s="15">
         <v>5.8</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="17">
+      <c r="A120" s="12">
         <v>2020</v>
       </c>
-      <c r="B120" s="10" t="s">
+      <c r="B120" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C120" s="11">
+      <c r="C120" s="6">
         <v>56.6</v>
       </c>
-      <c r="D120" s="11">
+      <c r="D120" s="6">
         <v>53.5</v>
       </c>
-      <c r="E120" s="11">
+      <c r="E120" s="6">
         <v>10025050</v>
       </c>
-      <c r="F120" s="11">
+      <c r="F120" s="6">
         <v>9485302</v>
       </c>
-      <c r="G120" s="11">
+      <c r="G120" s="6">
         <v>539748</v>
       </c>
-      <c r="H120" s="18">
+      <c r="H120" s="13">
         <v>5.4</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="19">
+      <c r="A121" s="14">
         <v>2020</v>
       </c>
-      <c r="B121" s="12" t="s">
+      <c r="B121" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C121" s="13">
+      <c r="C121" s="8">
         <v>56.6</v>
       </c>
-      <c r="D121" s="13">
+      <c r="D121" s="8">
         <v>53.7</v>
       </c>
-      <c r="E121" s="13">
+      <c r="E121" s="8">
         <v>10043992</v>
       </c>
-      <c r="F121" s="13">
+      <c r="F121" s="8">
         <v>9528878</v>
       </c>
-      <c r="G121" s="13">
+      <c r="G121" s="8">
         <v>515114</v>
       </c>
-      <c r="H121" s="20">
+      <c r="H121" s="15">
         <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="17">
+      <c r="A122" s="12">
         <v>2021</v>
       </c>
-      <c r="B122" s="10" t="s">
+      <c r="B122" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C122" s="11">
+      <c r="C122" s="6">
         <v>56.7</v>
       </c>
-      <c r="D122" s="11">
+      <c r="D122" s="6">
         <v>54</v>
       </c>
-      <c r="E122" s="11">
+      <c r="E122" s="6">
         <v>10068685</v>
       </c>
-      <c r="F122" s="11">
+      <c r="F122" s="6">
         <v>9587059</v>
       </c>
-      <c r="G122" s="11">
+      <c r="G122" s="6">
         <v>481626</v>
       </c>
-      <c r="H122" s="18">
+      <c r="H122" s="13">
         <v>4.8</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="19">
+      <c r="A123" s="14">
         <v>2021</v>
       </c>
-      <c r="B123" s="12" t="s">
+      <c r="B123" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C123" s="13">
+      <c r="C123" s="8">
         <v>57</v>
       </c>
-      <c r="D123" s="13">
+      <c r="D123" s="8">
         <v>54.3</v>
       </c>
-      <c r="E123" s="13">
+      <c r="E123" s="8">
         <v>10124393</v>
       </c>
-      <c r="F123" s="13">
+      <c r="F123" s="8">
         <v>9650056</v>
       </c>
-      <c r="G123" s="13">
+      <c r="G123" s="8">
         <v>474337</v>
       </c>
-      <c r="H123" s="20">
+      <c r="H123" s="15">
         <v>4.7</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="17">
+      <c r="A124" s="12">
         <v>2021</v>
       </c>
-      <c r="B124" s="10" t="s">
+      <c r="B124" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C124" s="11">
+      <c r="C124" s="6">
         <v>57.2</v>
       </c>
-      <c r="D124" s="11">
+      <c r="D124" s="6">
         <v>54.5</v>
       </c>
-      <c r="E124" s="11">
+      <c r="E124" s="6">
         <v>10170003</v>
       </c>
-      <c r="F124" s="11">
+      <c r="F124" s="6">
         <v>9695580</v>
       </c>
-      <c r="G124" s="11">
+      <c r="G124" s="6">
         <v>474423</v>
       </c>
-      <c r="H124" s="18">
+      <c r="H124" s="13">
         <v>4.7</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="19">
+      <c r="A125" s="14">
         <v>2021</v>
       </c>
-      <c r="B125" s="12" t="s">
+      <c r="B125" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C125" s="13">
+      <c r="C125" s="8">
         <v>57.5</v>
       </c>
-      <c r="D125" s="13">
+      <c r="D125" s="8">
         <v>54.8</v>
       </c>
-      <c r="E125" s="13">
+      <c r="E125" s="8">
         <v>10241583</v>
       </c>
-      <c r="F125" s="13">
+      <c r="F125" s="8">
         <v>9753831</v>
       </c>
-      <c r="G125" s="13">
+      <c r="G125" s="8">
         <v>487752</v>
       </c>
-      <c r="H125" s="20">
+      <c r="H125" s="15">
         <v>4.8</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="17">
+      <c r="A126" s="12">
         <v>2021</v>
       </c>
-      <c r="B126" s="10" t="s">
+      <c r="B126" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C126" s="11">
+      <c r="C126" s="6">
         <v>57.9</v>
       </c>
-      <c r="D126" s="11">
+      <c r="D126" s="6">
         <v>55.1</v>
       </c>
-      <c r="E126" s="11">
+      <c r="E126" s="6">
         <v>10315309</v>
       </c>
-      <c r="F126" s="11">
+      <c r="F126" s="6">
         <v>9811921</v>
       </c>
-      <c r="G126" s="11">
+      <c r="G126" s="6">
         <v>503388</v>
       </c>
-      <c r="H126" s="18">
+      <c r="H126" s="13">
         <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="19">
+      <c r="A127" s="14">
         <v>2021</v>
       </c>
-      <c r="B127" s="12" t="s">
+      <c r="B127" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C127" s="13">
+      <c r="C127" s="8">
         <v>58.3</v>
       </c>
-      <c r="D127" s="13">
+      <c r="D127" s="8">
         <v>55.4</v>
       </c>
-      <c r="E127" s="13">
+      <c r="E127" s="8">
         <v>10395981</v>
       </c>
-      <c r="F127" s="13">
+      <c r="F127" s="8">
         <v>9872463</v>
       </c>
-      <c r="G127" s="13">
+      <c r="G127" s="8">
         <v>523518</v>
       </c>
-      <c r="H127" s="20">
+      <c r="H127" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="17">
+      <c r="A128" s="12">
         <v>2021</v>
       </c>
-      <c r="B128" s="10" t="s">
+      <c r="B128" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C128" s="11" t="s">
+      <c r="C128" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D128" s="11" t="s">
+      <c r="D128" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E128" s="11" t="s">
+      <c r="E128" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F128" s="11" t="s">
+      <c r="F128" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G128" s="11" t="s">
+      <c r="G128" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H128" s="18" t="s">
+      <c r="H128" s="13" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4825,4 +5528,1819 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B0D174-3735-415F-BEC9-FFBE94C88C4B}">
+  <dimension ref="A1:I37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="44"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="51"/>
+    </row>
+    <row r="2" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="41"/>
+      <c r="B2" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="54"/>
+    </row>
+    <row r="3" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="41"/>
+      <c r="B3" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="27">
+        <v>44075</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="42"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="26">
+        <v>2020</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="30">
+        <v>10561.3</v>
+      </c>
+      <c r="C5" s="30">
+        <v>138549.5</v>
+      </c>
+      <c r="D5" s="31">
+        <v>-6.8</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="32">
+        <v>1173</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="31">
+        <v>7.4</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="34">
+        <v>749.1</v>
+      </c>
+      <c r="C6" s="35">
+        <v>8329.7000000000007</v>
+      </c>
+      <c r="D6" s="34">
+        <v>-5.8</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="36">
+        <v>1029</v>
+      </c>
+      <c r="G6" s="34">
+        <v>27</v>
+      </c>
+      <c r="H6" s="34">
+        <v>8</v>
+      </c>
+      <c r="I6" s="34">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="31">
+        <v>7.5</v>
+      </c>
+      <c r="C7" s="31">
+        <v>128.19999999999999</v>
+      </c>
+      <c r="D7" s="31">
+        <v>-4.8</v>
+      </c>
+      <c r="E7" s="31">
+        <v>84</v>
+      </c>
+      <c r="F7" s="38">
+        <v>1014</v>
+      </c>
+      <c r="G7" s="31">
+        <v>214</v>
+      </c>
+      <c r="H7" s="31">
+        <v>7.8</v>
+      </c>
+      <c r="I7" s="31">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="34">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="C8" s="34">
+        <v>214.7</v>
+      </c>
+      <c r="D8" s="34">
+        <v>-2.6</v>
+      </c>
+      <c r="E8" s="34">
+        <v>24</v>
+      </c>
+      <c r="F8" s="36">
+        <v>1017</v>
+      </c>
+      <c r="G8" s="34">
+        <v>210</v>
+      </c>
+      <c r="H8" s="34">
+        <v>5.9</v>
+      </c>
+      <c r="I8" s="34">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="31">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="C9" s="31">
+        <v>753.6</v>
+      </c>
+      <c r="D9" s="31">
+        <v>-7.9</v>
+      </c>
+      <c r="E9" s="31">
+        <v>240</v>
+      </c>
+      <c r="F9" s="38">
+        <v>1089</v>
+      </c>
+      <c r="G9" s="31">
+        <v>162</v>
+      </c>
+      <c r="H9" s="31">
+        <v>9.1</v>
+      </c>
+      <c r="I9" s="31">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="34">
+        <v>15.7</v>
+      </c>
+      <c r="C10" s="34">
+        <v>139.4</v>
+      </c>
+      <c r="D10" s="34">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="E10" s="34">
+        <v>71</v>
+      </c>
+      <c r="F10" s="34">
+        <v>984</v>
+      </c>
+      <c r="G10" s="34">
+        <v>243</v>
+      </c>
+      <c r="H10" s="34">
+        <v>7</v>
+      </c>
+      <c r="I10" s="34">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="31">
+        <v>31.4</v>
+      </c>
+      <c r="C11" s="31">
+        <v>509</v>
+      </c>
+      <c r="D11" s="31">
+        <v>-3</v>
+      </c>
+      <c r="E11" s="31">
+        <v>35</v>
+      </c>
+      <c r="F11" s="38">
+        <v>1073</v>
+      </c>
+      <c r="G11" s="31">
+        <v>171</v>
+      </c>
+      <c r="H11" s="31">
+        <v>6.7</v>
+      </c>
+      <c r="I11" s="31">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="34">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C12" s="34">
+        <v>134.6</v>
+      </c>
+      <c r="D12" s="34">
+        <v>-2.8</v>
+      </c>
+      <c r="E12" s="34">
+        <v>31</v>
+      </c>
+      <c r="F12" s="34">
+        <v>911</v>
+      </c>
+      <c r="G12" s="34">
+        <v>316</v>
+      </c>
+      <c r="H12" s="34">
+        <v>6.4</v>
+      </c>
+      <c r="I12" s="34">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="31">
+        <v>47.6</v>
+      </c>
+      <c r="C13" s="31">
+        <v>675.9</v>
+      </c>
+      <c r="D13" s="31">
+        <v>-4.8</v>
+      </c>
+      <c r="E13" s="31">
+        <v>84</v>
+      </c>
+      <c r="F13" s="38">
+        <v>1133</v>
+      </c>
+      <c r="G13" s="31">
+        <v>119</v>
+      </c>
+      <c r="H13" s="31">
+        <v>8.9</v>
+      </c>
+      <c r="I13" s="31">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="34">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C14" s="34">
+        <v>99.6</v>
+      </c>
+      <c r="D14" s="34">
+        <v>-2.5</v>
+      </c>
+      <c r="E14" s="34">
+        <v>23</v>
+      </c>
+      <c r="F14" s="34">
+        <v>796</v>
+      </c>
+      <c r="G14" s="34">
+        <v>349</v>
+      </c>
+      <c r="H14" s="34">
+        <v>7.3</v>
+      </c>
+      <c r="I14" s="34">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="31">
+        <v>24.4</v>
+      </c>
+      <c r="C15" s="31">
+        <v>253.3</v>
+      </c>
+      <c r="D15" s="31">
+        <v>-4.7</v>
+      </c>
+      <c r="E15" s="31">
+        <v>82</v>
+      </c>
+      <c r="F15" s="31">
+        <v>935</v>
+      </c>
+      <c r="G15" s="31">
+        <v>296</v>
+      </c>
+      <c r="H15" s="31">
+        <v>9.6</v>
+      </c>
+      <c r="I15" s="31">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="34">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C16" s="34">
+        <v>145.19999999999999</v>
+      </c>
+      <c r="D16" s="34">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="E16" s="34">
+        <v>78</v>
+      </c>
+      <c r="F16" s="34">
+        <v>945</v>
+      </c>
+      <c r="G16" s="34">
+        <v>283</v>
+      </c>
+      <c r="H16" s="34">
+        <v>4.7</v>
+      </c>
+      <c r="I16" s="34">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="31">
+        <v>12.1</v>
+      </c>
+      <c r="C17" s="31">
+        <v>121.5</v>
+      </c>
+      <c r="D17" s="31">
+        <v>-5.2</v>
+      </c>
+      <c r="E17" s="31">
+        <v>105</v>
+      </c>
+      <c r="F17" s="31">
+        <v>913</v>
+      </c>
+      <c r="G17" s="31">
+        <v>313</v>
+      </c>
+      <c r="H17" s="31">
+        <v>9.1</v>
+      </c>
+      <c r="I17" s="31">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="34">
+        <v>9</v>
+      </c>
+      <c r="C18" s="34">
+        <v>104.3</v>
+      </c>
+      <c r="D18" s="34">
+        <v>-1.7</v>
+      </c>
+      <c r="E18" s="34">
+        <v>9</v>
+      </c>
+      <c r="F18" s="34">
+        <v>787</v>
+      </c>
+      <c r="G18" s="34">
+        <v>350</v>
+      </c>
+      <c r="H18" s="34">
+        <v>7.4</v>
+      </c>
+      <c r="I18" s="34">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="31">
+        <v>108.1</v>
+      </c>
+      <c r="C19" s="30">
+        <v>1048.5</v>
+      </c>
+      <c r="D19" s="31">
+        <v>-9.5</v>
+      </c>
+      <c r="E19" s="31">
+        <v>308</v>
+      </c>
+      <c r="F19" s="38">
+        <v>1116</v>
+      </c>
+      <c r="G19" s="31">
+        <v>136</v>
+      </c>
+      <c r="H19" s="31">
+        <v>7.8</v>
+      </c>
+      <c r="I19" s="31">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="34">
+        <v>6.9</v>
+      </c>
+      <c r="C20" s="34">
+        <v>84</v>
+      </c>
+      <c r="D20" s="34">
+        <v>-2.1</v>
+      </c>
+      <c r="E20" s="34">
+        <v>14</v>
+      </c>
+      <c r="F20" s="34">
+        <v>983</v>
+      </c>
+      <c r="G20" s="34">
+        <v>244</v>
+      </c>
+      <c r="H20" s="34">
+        <v>9.5</v>
+      </c>
+      <c r="I20" s="34">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="31">
+        <v>47.4</v>
+      </c>
+      <c r="C21" s="31">
+        <v>733.3</v>
+      </c>
+      <c r="D21" s="31">
+        <v>-15.7</v>
+      </c>
+      <c r="E21" s="31">
+        <v>350</v>
+      </c>
+      <c r="F21" s="38">
+        <v>1056</v>
+      </c>
+      <c r="G21" s="31">
+        <v>180</v>
+      </c>
+      <c r="H21" s="31">
+        <v>10.6</v>
+      </c>
+      <c r="I21" s="31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="34">
+        <v>8.1</v>
+      </c>
+      <c r="C22" s="34">
+        <v>89.5</v>
+      </c>
+      <c r="D22" s="34">
+        <v>-10.3</v>
+      </c>
+      <c r="E22" s="34">
+        <v>328</v>
+      </c>
+      <c r="F22" s="34">
+        <v>759</v>
+      </c>
+      <c r="G22" s="34">
+        <v>353</v>
+      </c>
+      <c r="H22" s="34">
+        <v>4.8</v>
+      </c>
+      <c r="I22" s="34">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="31">
+        <v>61.2</v>
+      </c>
+      <c r="C23" s="31">
+        <v>568.70000000000005</v>
+      </c>
+      <c r="D23" s="31">
+        <v>-6.3</v>
+      </c>
+      <c r="E23" s="31">
+        <v>175</v>
+      </c>
+      <c r="F23" s="38">
+        <v>1115</v>
+      </c>
+      <c r="G23" s="31">
+        <v>139</v>
+      </c>
+      <c r="H23" s="31">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="I23" s="31">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="34">
+        <v>12.1</v>
+      </c>
+      <c r="C24" s="34">
+        <v>120.6</v>
+      </c>
+      <c r="D24" s="34">
+        <v>-2.1</v>
+      </c>
+      <c r="E24" s="34">
+        <v>14</v>
+      </c>
+      <c r="F24" s="34">
+        <v>835</v>
+      </c>
+      <c r="G24" s="34">
+        <v>343</v>
+      </c>
+      <c r="H24" s="34">
+        <v>7.3</v>
+      </c>
+      <c r="I24" s="34">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="31">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="C25" s="31">
+        <v>417.2</v>
+      </c>
+      <c r="D25" s="31">
+        <v>-5.2</v>
+      </c>
+      <c r="E25" s="31">
+        <v>105</v>
+      </c>
+      <c r="F25" s="38">
+        <v>1011</v>
+      </c>
+      <c r="G25" s="31">
+        <v>217</v>
+      </c>
+      <c r="H25" s="31">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I25" s="31">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="34">
+        <v>14.9</v>
+      </c>
+      <c r="C26" s="34">
+        <v>230.1</v>
+      </c>
+      <c r="D26" s="34">
+        <v>-0.6</v>
+      </c>
+      <c r="E26" s="34">
+        <v>3</v>
+      </c>
+      <c r="F26" s="34">
+        <v>871</v>
+      </c>
+      <c r="G26" s="34">
+        <v>335</v>
+      </c>
+      <c r="H26" s="34">
+        <v>5.6</v>
+      </c>
+      <c r="I26" s="34">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="31">
+        <v>17.2</v>
+      </c>
+      <c r="C27" s="31">
+        <v>162.1</v>
+      </c>
+      <c r="D27" s="31">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="E27" s="31">
+        <v>78</v>
+      </c>
+      <c r="F27" s="31">
+        <v>956</v>
+      </c>
+      <c r="G27" s="31">
+        <v>270</v>
+      </c>
+      <c r="H27" s="31">
+        <v>6.6</v>
+      </c>
+      <c r="I27" s="31">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="34">
+        <v>16.2</v>
+      </c>
+      <c r="C28" s="34">
+        <v>191.6</v>
+      </c>
+      <c r="D28" s="34">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="E28" s="34">
+        <v>71</v>
+      </c>
+      <c r="F28" s="34">
+        <v>990</v>
+      </c>
+      <c r="G28" s="34">
+        <v>237</v>
+      </c>
+      <c r="H28" s="34">
+        <v>7.1</v>
+      </c>
+      <c r="I28" s="34">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="31">
+        <v>8.4</v>
+      </c>
+      <c r="C29" s="31">
+        <v>78.2</v>
+      </c>
+      <c r="D29" s="31">
+        <v>-1.2</v>
+      </c>
+      <c r="E29" s="31">
+        <v>5</v>
+      </c>
+      <c r="F29" s="31">
+        <v>903</v>
+      </c>
+      <c r="G29" s="31">
+        <v>321</v>
+      </c>
+      <c r="H29" s="31">
+        <v>6.6</v>
+      </c>
+      <c r="I29" s="31">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="34">
+        <v>7.3</v>
+      </c>
+      <c r="C30" s="34">
+        <v>77.8</v>
+      </c>
+      <c r="D30" s="34">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="E30" s="34">
+        <v>20</v>
+      </c>
+      <c r="F30" s="34">
+        <v>835</v>
+      </c>
+      <c r="G30" s="34">
+        <v>343</v>
+      </c>
+      <c r="H30" s="34">
+        <v>6</v>
+      </c>
+      <c r="I30" s="34">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="31">
+        <v>15.4</v>
+      </c>
+      <c r="C31" s="31">
+        <v>166.4</v>
+      </c>
+      <c r="D31" s="31">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="E31" s="31">
+        <v>102</v>
+      </c>
+      <c r="F31" s="31">
+        <v>824</v>
+      </c>
+      <c r="G31" s="31">
+        <v>345</v>
+      </c>
+      <c r="H31" s="31">
+        <v>8.9</v>
+      </c>
+      <c r="I31" s="31">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="57"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="60"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="60"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="60"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="63"/>
+    </row>
+    <row r="37" spans="1:9" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="65"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="66"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="A36:I36"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="C1:E2"/>
+    <mergeCell ref="F1:I2"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="A34:I34"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F1" r:id="rId1" location="QCEWTable1FL.xlsx.f.1" display="https://www.bls.gov/regions/southeast/news-release/countyemploymentandwages_florida.htm - QCEWTable1FL.xlsx.f.1" xr:uid="{BA3BF120-781F-4F38-A672-478861B75C8D}"/>
+    <hyperlink ref="D4" r:id="rId2" location="QCEWTable1FL.xlsx.f.2" display="https://www.bls.gov/regions/southeast/news-release/countyemploymentandwages_florida.htm - QCEWTable1FL.xlsx.f.2" xr:uid="{50DEB4E1-655D-4A23-81E5-CA30AF905E2D}"/>
+    <hyperlink ref="E4" r:id="rId3" location="QCEWTable1FL.xlsx.f.3" display="https://www.bls.gov/regions/southeast/news-release/countyemploymentandwages_florida.htm - QCEWTable1FL.xlsx.f.3" xr:uid="{29509A35-61FF-488B-B868-A20A94AC9BCB}"/>
+    <hyperlink ref="G4" r:id="rId4" location="QCEWTable1FL.xlsx.f.3" display="https://www.bls.gov/regions/southeast/news-release/countyemploymentandwages_florida.htm - QCEWTable1FL.xlsx.f.3" xr:uid="{2CF7E817-66C1-48F9-89C2-A33CB40BFC70}"/>
+    <hyperlink ref="H4" r:id="rId5" location="QCEWTable1FL.xlsx.f.2" display="https://www.bls.gov/regions/southeast/news-release/countyemploymentandwages_florida.htm - QCEWTable1FL.xlsx.f.2" xr:uid="{E803E80D-EF02-48AA-A026-4111DDA0F468}"/>
+    <hyperlink ref="I4" r:id="rId6" location="QCEWTable1FL.xlsx.f.3" display="https://www.bls.gov/regions/southeast/news-release/countyemploymentandwages_florida.htm - QCEWTable1FL.xlsx.f.3" xr:uid="{3DDF6B53-4F81-4C8C-AC61-65B0EE6A683B}"/>
+    <hyperlink ref="A5" r:id="rId7" location="QCEWTable1FL.xlsx.f.4" display="https://www.bls.gov/regions/southeast/news-release/countyemploymentandwages_florida.htm - QCEWTable1FL.xlsx.f.4" xr:uid="{57D0F228-E91E-466E-B065-0911AB85D6DD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AF0B281-417F-4534-A4AC-DCA7E6618245}">
+  <dimension ref="A1:C74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="26.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="68" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="38">
+        <v>138549503</v>
+      </c>
+      <c r="C2" s="32">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="36">
+        <v>8329730</v>
+      </c>
+      <c r="C3" s="36">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="38">
+        <v>128220</v>
+      </c>
+      <c r="C4" s="38">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="36">
+        <v>7635</v>
+      </c>
+      <c r="C5" s="34">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="38">
+        <v>72823</v>
+      </c>
+      <c r="C6" s="31">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="36">
+        <v>6433</v>
+      </c>
+      <c r="C7" s="34">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="38">
+        <v>214675</v>
+      </c>
+      <c r="C8" s="38">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="36">
+        <v>753620</v>
+      </c>
+      <c r="C9" s="36">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="38">
+        <v>2935</v>
+      </c>
+      <c r="C10" s="31">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="36">
+        <v>46779</v>
+      </c>
+      <c r="C11" s="34">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="38">
+        <v>31172</v>
+      </c>
+      <c r="C12" s="31">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="36">
+        <v>51976</v>
+      </c>
+      <c r="C13" s="34">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="38">
+        <v>139429</v>
+      </c>
+      <c r="C14" s="31">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="36">
+        <v>24211</v>
+      </c>
+      <c r="C15" s="34">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="38">
+        <v>9202</v>
+      </c>
+      <c r="C16" s="31">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="36">
+        <v>2884</v>
+      </c>
+      <c r="C17" s="34">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="38">
+        <v>509043</v>
+      </c>
+      <c r="C18" s="38">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="36">
+        <v>134612</v>
+      </c>
+      <c r="C19" s="34">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="38">
+        <v>23961</v>
+      </c>
+      <c r="C20" s="31">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="36">
+        <v>3381</v>
+      </c>
+      <c r="C21" s="34">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="38">
+        <v>15505</v>
+      </c>
+      <c r="C22" s="31">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="36">
+        <v>3744</v>
+      </c>
+      <c r="C23" s="34">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="38">
+        <v>1867</v>
+      </c>
+      <c r="C24" s="31">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="36">
+        <v>3913</v>
+      </c>
+      <c r="C25" s="34">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="38">
+        <v>2873</v>
+      </c>
+      <c r="C26" s="31">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="36">
+        <v>6587</v>
+      </c>
+      <c r="C27" s="34">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="38">
+        <v>11335</v>
+      </c>
+      <c r="C28" s="31">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" s="36">
+        <v>43212</v>
+      </c>
+      <c r="C29" s="34">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" s="38">
+        <v>25427</v>
+      </c>
+      <c r="C30" s="31">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="36">
+        <v>675905</v>
+      </c>
+      <c r="C31" s="36">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" s="38">
+        <v>3447</v>
+      </c>
+      <c r="C32" s="31">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" s="36">
+        <v>49807</v>
+      </c>
+      <c r="C33" s="34">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="38">
+        <v>14692</v>
+      </c>
+      <c r="C34" s="31">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" s="36">
+        <v>2540</v>
+      </c>
+      <c r="C35" s="34">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="38">
+        <v>1397</v>
+      </c>
+      <c r="C36" s="31">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="36">
+        <v>99590</v>
+      </c>
+      <c r="C37" s="34">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="38">
+        <v>253259</v>
+      </c>
+      <c r="C38" s="31">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="36">
+        <v>145192</v>
+      </c>
+      <c r="C39" s="34">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" s="38">
+        <v>8993</v>
+      </c>
+      <c r="C40" s="31">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41" s="36">
+        <v>1884</v>
+      </c>
+      <c r="C41" s="34">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" s="38">
+        <v>4628</v>
+      </c>
+      <c r="C42" s="31">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" s="36">
+        <v>121533</v>
+      </c>
+      <c r="C43" s="34">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" s="38">
+        <v>104259</v>
+      </c>
+      <c r="C44" s="31">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" s="36">
+        <v>66655</v>
+      </c>
+      <c r="C45" s="34">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" s="38">
+        <v>1048545</v>
+      </c>
+      <c r="C46" s="38">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" s="36">
+        <v>36877</v>
+      </c>
+      <c r="C47" s="34">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" s="38">
+        <v>22933</v>
+      </c>
+      <c r="C48" s="31">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" s="36">
+        <v>84045</v>
+      </c>
+      <c r="C49" s="34">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="B50" s="38">
+        <v>10988</v>
+      </c>
+      <c r="C50" s="31">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" s="36">
+        <v>733281</v>
+      </c>
+      <c r="C51" s="36">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B52" s="38">
+        <v>89479</v>
+      </c>
+      <c r="C52" s="31">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53" s="36">
+        <v>568749</v>
+      </c>
+      <c r="C53" s="36">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B54" s="38">
+        <v>120600</v>
+      </c>
+      <c r="C54" s="31">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" s="36">
+        <v>417189</v>
+      </c>
+      <c r="C55" s="36">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" s="38">
+        <v>230071</v>
+      </c>
+      <c r="C56" s="31">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" s="36">
+        <v>15947</v>
+      </c>
+      <c r="C57" s="34">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" s="38">
+        <v>78187</v>
+      </c>
+      <c r="C58" s="31">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" s="36">
+        <v>77801</v>
+      </c>
+      <c r="C59" s="34">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60" s="38">
+        <v>39169</v>
+      </c>
+      <c r="C60" s="31">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61" s="36">
+        <v>162065</v>
+      </c>
+      <c r="C61" s="34">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" s="38">
+        <v>191572</v>
+      </c>
+      <c r="C62" s="31">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" s="36">
+        <v>30892</v>
+      </c>
+      <c r="C63" s="34">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" s="38">
+        <v>10923</v>
+      </c>
+      <c r="C64" s="31">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="B65" s="36">
+        <v>6252</v>
+      </c>
+      <c r="C65" s="34">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="B66" s="38">
+        <v>3369</v>
+      </c>
+      <c r="C66" s="31">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67" s="36">
+        <v>166438</v>
+      </c>
+      <c r="C67" s="34">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="B68" s="38">
+        <v>6011</v>
+      </c>
+      <c r="C68" s="31">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="B69" s="36">
+        <v>27418</v>
+      </c>
+      <c r="C69" s="34">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="B70" s="38">
+        <v>5807</v>
+      </c>
+      <c r="C70" s="31">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="B71" s="70"/>
+      <c r="C71" s="71"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="B72" s="59"/>
+      <c r="C72" s="60"/>
+    </row>
+    <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="B73" s="62"/>
+      <c r="C73" s="63"/>
+    </row>
+    <row r="74" spans="1:3" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="B74" s="73"/>
+      <c r="C74" s="74"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A74:C74"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1" location="ro4qcew-florida.f.1" tooltip="Click to jump to footnotes at bottom of the table" display="https://www.bls.gov/regions/southeast/news-release/countyemploymentandwages_florida.htm - ro4qcew-florida.f.1" xr:uid="{071D8693-AFCA-4B59-B9C3-72FC1EFCE7E2}"/>
+    <hyperlink ref="A2" r:id="rId2" location="ro4qcew-florida.f.2" tooltip="Click to jump to footnotes at bottom of the table" display="https://www.bls.gov/regions/southeast/news-release/countyemploymentandwages_florida.htm - ro4qcew-florida.f.2" xr:uid="{92320D55-784C-4C8A-A6EB-D855015ECFED}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>